--- a/test.xlsx
+++ b/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Name1</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Tutor2</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -483,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +537,11 @@
       <c r="N1" t="s">
         <v>48</v>
       </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -569,8 +575,11 @@
       <c r="N2" t="s">
         <v>12</v>
       </c>
+      <c r="O2">
+        <v>11111</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -610,8 +619,11 @@
       <c r="M3" t="s">
         <v>12</v>
       </c>
+      <c r="O3">
+        <v>22222</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -651,8 +663,11 @@
       <c r="M4" t="s">
         <v>12</v>
       </c>
+      <c r="O4">
+        <v>333333</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -691,6 +706,9 @@
       </c>
       <c r="M5" t="s">
         <v>46</v>
+      </c>
+      <c r="O5">
+        <v>444444</v>
       </c>
     </row>
   </sheetData>
